--- a/results/eval_metrics.xlsx
+++ b/results/eval_metrics.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>selection_rate</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>true_positive_rate</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>false_positive_rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>true_negative_rate</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>false_negative_rate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>treatment_equality_rate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>equality_of_opportunity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>average_odds</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>acceptance_rate</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rejection_rate</t>
         </is>
@@ -487,101 +492,110 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8782676672920575</v>
+        <v>0.8876172607879925</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6808118081180812</v>
+        <v>0.8745465916197623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1021167788710513</v>
+        <v>0.6928044280442804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8978832211289487</v>
+        <v>0.1055476437079234</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3191881918819188</v>
+        <v>0.8944523562920766</v>
       </c>
       <c r="F2" t="n">
-        <v>9.11849710982659</v>
+        <v>0.3071955719557196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8978832211289487</v>
+        <v>9.792792792792794</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3914642934945662</v>
+        <v>0.8944523562920766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9876811336205362</v>
+        <v>0.3991760358761019</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01231886637946378</v>
+        <v>0.9880935354691075</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0119064645308925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8247342088805504</v>
+        <v>0.8524702939337085</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8099630996309963</v>
+        <v>0.8190118824265166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1412663899321341</v>
+        <v>0.8290282902829028</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8587336100678659</v>
+        <v>0.1462739671871912</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1900369003690037</v>
+        <v>0.8537260328128089</v>
       </c>
       <c r="F3" t="n">
-        <v>13.87702265372168</v>
+        <v>0.1709717097170972</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8587336100678659</v>
+        <v>15.97122302158273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4756147447815652</v>
+        <v>0.8537260328128089</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9882843601895734</v>
+        <v>0.487651128735047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01171563981042656</v>
+        <v>0.9893860720830788</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01061392791692117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7030018761726079</v>
+        <v>0.7400875547217011</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7583025830258303</v>
+        <v>0.6935584740462789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2542876665527844</v>
+        <v>0.7745387453874538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7457123334472155</v>
+        <v>0.2631021523744448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2416974169741697</v>
+        <v>0.7368978476255552</v>
       </c>
       <c r="F4" t="n">
-        <v>11.36335877862595</v>
+        <v>0.2254612546125462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7457123334472155</v>
+        <v>12.60392798690671</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5062951247893074</v>
+        <v>0.7368978476255552</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9708655813539721</v>
+        <v>0.5188204488809494</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02913441864602795</v>
+        <v>0.9724526600541028</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0275473399458972</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>